--- a/pred_ohlcv/54_21/2019-11-01 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 XLM ohlcv.xlsx
@@ -1536,7 +1536,7 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-4033434.31415577</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-4059836.47005577</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-4059836.47005577</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-4092733.62145577</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-4092733.62145577</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-4092733.62145577</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-4092733.62145577</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-5643611.64575577</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-5619188.121255769</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-8719188.12125577</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-8716548.29575577</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-10266548.29575577</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-10240795.29735577</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-9902721.241650272</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-9902721.241650272</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-10126699.52365027</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-9905774.236350272</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-9579957.464450272</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-9579957.464450272</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-9504984.720150271</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-9263320.593234431</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-9263320.593234431</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-8797492.280234432</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-8797492.280234432</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-7661137.437437512</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-8239962.830937512</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-7919523.135937512</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-8013245.952437512</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-8377245.348251232</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-8104695.712151232</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-7901439.660151232</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-8097262.283151232</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-8097262.283151232</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-7740695.237078742</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-7350044.580678742</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-7602400.460678742</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-6452732.129069054</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-6034269.097869053</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-6034269.097869053</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-6238034.226169053</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-6002806.218669053</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-6082083.559469054</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-6082083.559469054</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-6235035.300669054</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-5934005.262169054</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-6298552.150724874</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-6298552.150724874</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-6148631.074967704</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-6148631.074967704</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-6332742.164367704</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-6541592.667467704</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-6658698.213367704</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-6783288.542467704</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-6962713.069647164</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-6661090.912947164</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-6661090.912947164</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-6384168.812047164</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-6189845.320947164</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-6189845.320947164</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-6400035.450447164</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-6400035.450447164</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-6201876.489137404</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-6327607.425337404</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-6362526.901337404</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-6390228.132337403</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-6447698.136160653</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-6250932.326309123</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-13478832.91910499</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-14001390.20381557</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-39366326.48272689</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-39372207.50372688</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-39371792.50992689</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-72336.90455268999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-68706.90455268999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-69858.23735268999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-68652.23735268999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-68944.72295268999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-68944.72295268999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-68944.72295268999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-68944.72295268999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-74479.72285268999</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-74479.72285268999</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-60696.01985576998</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-60696.01985576998</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-61172.98295576998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-61172.98295576998</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-61172.98295576998</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-59504.98305576998</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-65789.00035576998</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-65789.00035576998</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-64779.00035576998</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-64779.00035576998</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-64779.00035576998</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-120248.46485577</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-122363.46485577</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-126517.49485577</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-113007.78755577</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-213007.82855577</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-200449.82855577</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-220711.81965577</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-218287.88165577</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-218287.88165577</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-222258.88165577</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-242549.32785577</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-242549.32785577</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-214693.89975577</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-214693.89975577</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-214693.89975577</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-227873.79415577</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2611556.47354423</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2611556.47354423</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2611556.47354423</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2678401.76764423</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2718829.80814423</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-9902721.241650272</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-9902721.241650272</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-10126699.52365027</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-9905774.236350272</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-9579957.464450272</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-9579957.464450272</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-9504984.720150271</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-9263320.593234431</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-9263320.593234431</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-8797492.280234432</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-8797492.280234432</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-7661137.437437512</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-8239962.830937512</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-7919523.135937512</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-8013245.952437512</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-8377245.348251232</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-8104695.712151232</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-7901439.660151232</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-8097262.283151232</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-8097262.283151232</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-7740695.237078742</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-7350044.580678742</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-7602400.460678742</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-6794734.718663434</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-6452732.129069054</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-6034269.097869053</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-6034269.097869053</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-6238034.226169053</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-6002806.218669053</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-6082083.559469054</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-6082083.559469054</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-6235035.300669054</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-5934005.262169054</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-6298552.150724874</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-6298552.150724874</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-6148631.074967704</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-6148631.074967704</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-6332742.164367704</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-6541592.667467704</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-6658698.213367704</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-6783288.542467704</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-6962713.069647164</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-6661090.912947164</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-6661090.912947164</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-6384168.812047164</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-6189845.320947164</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-6189845.320947164</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-6400035.450447164</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-6400035.450447164</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-6201876.489137404</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-6327607.425337404</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-6362526.901337404</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-6390228.132337403</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-6447698.136160653</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-39112217.26542689</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-39112345.81392689</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-39072500.61852689</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-39075001.44732689</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-39075001.44732689</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-39079669.12132689</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-39087173.11382689</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-39085024.11382689</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-39085024.11382689</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-39076391.79062689</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-39122856.13182689</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-39317472.1703269</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-39340300.76392689</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-39344146.9771269</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-39344468.12792689</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-39344422.11242689</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-39344422.11242689</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-39355403.40292689</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-39386219.24532689</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-39330224.25782689</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-39389035.99882689</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-39366326.48272689</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-39355716.24972689</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-39343216.24972689</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-39360045.28652689</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-39360045.28652689</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-39354976.90132689</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-39317994.06932689</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-39329978.28242689</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-39307642.56042688</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-39309385.26372688</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-39378863.86272688</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-39364479.65332688</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-39417304.53922688</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-39416069.58822688</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-39416069.58822688</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-39416069.58822688</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-39421941.14622688</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-39421941.14622688</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-39421941.14622688</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-39421941.14622688</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-39416414.18592688</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-39416414.18592688</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-39416414.18592688</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-39416414.18592688</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-39375101.47492688</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-39375101.47492688</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-39375101.47492688</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-39372313.14492688</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-39402455.62262689</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-39337283.06012689</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-39319701.80202688</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-39280951.58402688</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-39274464.58402688</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-39184306.79472688</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-39184306.79472688</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-39184306.79472688</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-39304547.88532688</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-39306141.48532689</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-39305226.42772689</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-39298548.891495</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-39296254.102595</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-39316040.042595</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-39131627.098995</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-39233995.603795</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-39325494.413895</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-39325494.413895</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-39218221.594795</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-39218221.594795</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-39218221.594795</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-39231826.99819499</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-39189772.07329499</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-39220689.81739499</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-39259886.24279498</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-39333950.36239498</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-39344638.20659498</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-39389365.06849498</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-39275576.35599498</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-39351383.09169498</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-39351383.09169498</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-39351383.09169498</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-39351105.50339498</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-39351105.50339498</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-39342337.07849498</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-39345475.53349498</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-39275531.38729498</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-39260220.84929498</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-39260220.84929498</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-39272389.68709498</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-39239647.53339498</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-39259667.67012209</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-39259667.67012209</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-39229302.68282209</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-39229302.68282209</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-39229302.68282209</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-39229302.68282209</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-39204581.94752209</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-39202654.76332209</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-39135606.93418359</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-39135606.93418359</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-39062580.16448359</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-39123131.60608359</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-39123131.60608359</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-39125815.8108836</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-39075867.9142836</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-39088288.2268836</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-39077389.1749836</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-39077389.1749836</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-38979914.2883836</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-39030975.8548836</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-39030975.8548836</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-39106826.56161071</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-39121409.5276107</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-39081530.0041107</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-39088794.7241107</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-39088794.7241107</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-39088794.7241107</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-39091818.2119107</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-39104152.7582107</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-39104152.7582107</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-39101080.9372107</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-39101080.9372107</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-39101019.3564107</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-39101019.3564107</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-39081661.4017107</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-38973802.7362107</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-38983334.7587107</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-39032360.1279107</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-39032360.1279107</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-39025882.7125107</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-39028178.2125107</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-39057309.05601071</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-39057309.05601071</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-38953778.10732884</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-38945184.05542884</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-38930431.78872884</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-38942891.02482884</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-38942891.02482884</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-38920353.98492885</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-38914041.35782885</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-39050040.87902885</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-39042506.73832885</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-39046657.05692885</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-39046657.05692885</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-39046657.05692885</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-39016642.59222885</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-39016642.59222885</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-42116642.59222885</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-44930339.78232885</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-44956797.82780097</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-41803885.0999731</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-41818851.4843731</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-40217426.6956731</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-45180483.2259731</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-45150593.7956731</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-45150593.7956731</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-45150593.7956731</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-45166814.68390725</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-45166814.68390725</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-45164372.68150724</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-45164372.68150724</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-45168094.62410724</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-45126715.75040724</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
